--- a/Project-2/Final-Analysis.xlsx
+++ b/Project-2/Final-Analysis.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tigermailauburn-my.sharepoint.com/personal/bvj0002_tigermail_auburn_edu/Documents/Coursework/Fall2019/COMP6970 Adversarial Machine Learning/Projects/Adversarial_m/Project-2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bhargavjoshi/OneDrive - Auburn University/Coursework/Fall2019/COMP6970 Adversarial Machine Learning/Projects/Adversarial_m/Project-2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="68" documentId="8_{E0A6821A-4D54-E94A-8ED4-C0D0FA28F920}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F66E2B23-ECDF-0844-9CEB-5AC336C59F48}"/>
+  <xr:revisionPtr revIDLastSave="72" documentId="8_{E0A6821A-4D54-E94A-8ED4-C0D0FA28F920}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{60959A8A-1FAC-BF4C-8B7B-891CA957C726}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="8" xr2:uid="{3D8D95EE-3C7D-DB4A-B1AB-5FF5D0DE1D2F}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18940" xr2:uid="{3D8D95EE-3C7D-DB4A-B1AB-5FF5D0DE1D2F}"/>
   </bookViews>
   <sheets>
     <sheet name="ANOVA-all" sheetId="3" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <sheet name="T-test-rings" sheetId="11" r:id="rId8"/>
     <sheet name="DATA" sheetId="1" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -569,13 +569,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95ACD082-F741-3042-8025-CC9C167061C1}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
+    <col min="2" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -1821,15 +1824,15 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA077CFD-1A59-A947-80FC-4885F3274789}">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34:E35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>43</v>
       </c>
@@ -1843,7 +1846,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1860,7 +1863,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1876,11 +1879,8 @@
       <c r="E3">
         <v>125</v>
       </c>
-      <c r="F3">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1896,11 +1896,8 @@
       <c r="E4">
         <v>128</v>
       </c>
-      <c r="F4">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1916,11 +1913,8 @@
       <c r="E5">
         <v>161</v>
       </c>
-      <c r="F5">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1936,11 +1930,8 @@
       <c r="E6">
         <v>115</v>
       </c>
-      <c r="F6">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1956,11 +1947,8 @@
       <c r="E7">
         <v>154</v>
       </c>
-      <c r="F7">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1976,11 +1964,8 @@
       <c r="E8">
         <v>128</v>
       </c>
-      <c r="F8">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1996,11 +1981,8 @@
       <c r="E9">
         <v>130</v>
       </c>
-      <c r="F9">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2016,11 +1998,8 @@
       <c r="E10">
         <v>143</v>
       </c>
-      <c r="F10">
-        <v>1589</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2036,11 +2015,8 @@
       <c r="E11">
         <v>198</v>
       </c>
-      <c r="F11">
-        <v>1893</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -2056,11 +2032,8 @@
       <c r="E12">
         <v>123</v>
       </c>
-      <c r="F12">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
@@ -2076,11 +2049,8 @@
       <c r="E13">
         <v>143</v>
       </c>
-      <c r="F13">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
@@ -2096,11 +2066,8 @@
       <c r="E14">
         <v>134</v>
       </c>
-      <c r="F14">
-        <v>1522</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
@@ -2116,11 +2083,8 @@
       <c r="E15">
         <v>183</v>
       </c>
-      <c r="F15">
-        <v>1571</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
@@ -2136,11 +2100,8 @@
       <c r="E16">
         <v>146</v>
       </c>
-      <c r="F16">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
@@ -2156,11 +2117,8 @@
       <c r="E17">
         <v>168</v>
       </c>
-      <c r="F17">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>16</v>
       </c>
@@ -2176,11 +2134,8 @@
       <c r="E18">
         <v>132</v>
       </c>
-      <c r="F18">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>17</v>
       </c>
@@ -2196,11 +2151,8 @@
       <c r="E19">
         <v>173</v>
       </c>
-      <c r="F19">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>18</v>
       </c>
@@ -2216,11 +2168,8 @@
       <c r="E20">
         <v>144</v>
       </c>
-      <c r="F20">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>19</v>
       </c>
@@ -2236,11 +2185,8 @@
       <c r="E21">
         <v>117</v>
       </c>
-      <c r="F21">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>20</v>
       </c>
@@ -2256,11 +2202,8 @@
       <c r="E22">
         <v>114</v>
       </c>
-      <c r="F22">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>21</v>
       </c>
@@ -2276,11 +2219,8 @@
       <c r="E23">
         <v>124</v>
       </c>
-      <c r="F23">
-        <v>1514</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>22</v>
       </c>
@@ -2296,11 +2236,8 @@
       <c r="E24">
         <v>169</v>
       </c>
-      <c r="F24">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>23</v>
       </c>
@@ -2316,11 +2253,8 @@
       <c r="E25">
         <v>155</v>
       </c>
-      <c r="F25">
-        <v>1442</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>24</v>
       </c>
@@ -2336,11 +2270,8 @@
       <c r="E26">
         <v>141</v>
       </c>
-      <c r="F26">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>25</v>
       </c>
@@ -2356,11 +2287,8 @@
       <c r="E27">
         <v>156</v>
       </c>
-      <c r="F27">
-        <v>2147</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>26</v>
       </c>
@@ -2376,11 +2304,8 @@
       <c r="E28">
         <v>154</v>
       </c>
-      <c r="F28">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>27</v>
       </c>
@@ -2396,11 +2321,8 @@
       <c r="E29">
         <v>138</v>
       </c>
-      <c r="F29">
-        <v>3476</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>28</v>
       </c>
@@ -2416,11 +2338,8 @@
       <c r="E30">
         <v>162</v>
       </c>
-      <c r="F30">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>29</v>
       </c>
@@ -2436,11 +2355,8 @@
       <c r="E31">
         <v>183</v>
       </c>
-      <c r="F31">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>30</v>
       </c>
@@ -2455,9 +2371,6 @@
       </c>
       <c r="E32">
         <v>146</v>
-      </c>
-      <c r="F32">
-        <v>865</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.2">
